--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V5 Consolidating by Reference/W1_LeaveDaysSydney.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V5 Consolidating by Reference/W1_LeaveDaysSydney.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V5 Consolidating by Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE280EF-3B29-43DC-A719-FA99EECDD9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="11520" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LEAVE DAYS" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="WeekEnding" localSheetId="0">'LEAVE DAYS'!#REF!</definedName>
     <definedName name="WeekEnding">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="dddd"/>
@@ -388,15 +389,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -447,7 +448,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -773,27 +774,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="17.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -806,8 +807,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -827,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -848,7 +849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -869,7 +870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -890,7 +891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -911,7 +912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -932,7 +933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -953,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -974,7 +975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
